--- a/系统问题.xlsx
+++ b/系统问题.xlsx
@@ -4,59 +4,390 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="问题-任务" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'问题-任务'!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>承租人简称加校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统催收管理中的条件查询无法正常使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付表编号规则   合同号-ZJ-流水号    流水号为两位数字不足10的补0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+  <si>
+    <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
   <si>
     <t>导出支付表功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批流程的打印</t>
+  </si>
+  <si>
+    <t>罚息复利计算不对</t>
+  </si>
+  <si>
+    <t>晋煤三期的来款金额前三期需要修改</t>
+  </si>
+  <si>
+    <t>流程意见不填写的话提示的意见不对，应该显示：请填写意见！</t>
+  </si>
+  <si>
+    <t>有色一二三期加担保人，担保人名称：陕西有色金属控股集团有限责任公司</t>
+  </si>
+  <si>
+    <t>OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已从数据库修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整咨询服务类的合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了查询发起人的sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送有时流程发起人是空值：把发起流程后发邮件的那段代码找出来看看，有个bug，有时候发送的邮件没有发起人名称，是空的，看看是什么原因导致的，我猜是发起流程的代码还没有跑完就开始跑发邮件的代码了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强修改数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄冈医院的留购价改为10  业务员录错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除多余数据，手速快发起多次导致的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南刘燊 做支付表变更但是加入购物车后数据消失 合同号：EGIC-HZL-LHSW03131010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改系统密码时去掉手机号验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用章申请中份数与用章次数不做关联，里面的文本框全用可扩展的，
+查看下合同号规则（目前合同编号中业务类型回租是HZ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表管理、项目管理增加项目名称模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意不要做租金提醒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤城医院已经提前结清但是有罚息未付款，我司给承租方的发票也没有开具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春城开不需要租后维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不理会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料中孤儿文件夹什么意思？（咨询刘芳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移到已完成项目中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中煤地已结清但是资料没有在已结清的项目里（咨询刘芳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临港二期系统无法打开支付表（咨询王海龙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经放款但是没有做放款回执上传（核销）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中没有同煤金庄二期的项目，看下资料，看看为什么没有在系统记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成咨询服务类合同号时的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比系统与实际的支付表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做支付表变更等项目结束后在系统做结清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签了转让协议后系统怎么处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金支付通知书导出的表格有些信息显示不出来，期次缺少汉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改方案名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强已给予解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期支付表拆分报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为系统8月份之前的应收款不做开票，线下解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑煤项目EGIC-HZL-ZMJT05130520 的项目已经核销但是没有开票申请数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临港二期修改收款银行报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春城开需要做提前结清，不做租金提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为录入的来款时间有误导致有罚息，冲红修改来款从新核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安余吾容海没有开票数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟江辉加入购物车后没有发起流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋煤三期支付表变更没有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经配合修改完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮寄地址管理中增加导出资金方邮寄地址功能，与导出承租方地址一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询红霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁利率的测算方法（咨询李红霞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经逾期法务正在处理，处理后李红霞解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中安德固项目有问题，应该逾期没有显示逾期，应该结束了但是没有结束（咨询李红霞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月有租金提醒的项目已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在系统中维护每个项目我司的收款账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比系统与实际的方案信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将合同签订日期维护到系统当中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询项目相关人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同煤金庄二期的还款表没有起租日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待刘芳审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰喜二期的最后三期租金都少一分钱，需要做支付表变更把金额调整正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察项目进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漯河水务 截至2016-10-12 正在做提前结清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在做发票申请没有审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中国电海运三期应该结束了但是没有结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州燃气发电合同中没有支付表编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>租后检查预警字段没有填写值的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程意见不填写的话提示的意见不对，应该显示：请填写意见！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临港二期修改收款银行报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差、请假申请流程图，判断节点再优化一下，对于一人分饰两层角色（如即是部门经理，又是分管领导），
-在出差及请假申请中，若时间短于2天，就会出现自己提交申请，自己审批完，流程就结束了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用章申请流程图，部门经理提交用章审批时，两次分管领导审批，判断节点是不是再设置一下，
 顺便检查一下其它流程图是不是也是这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批流程的打印功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漯河水务融资还款表修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神华煤制油1和4，遇节假日不处理改为提前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出实际支付表号与系统不一致的，整理出来并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期租赁物信息中出卖人不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表变更中缺少合同号为EGIC-HZL-JMJT05141225晋煤二期的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差、请假申请流程图，判断节点再优化一下，对于一人分饰两层角色（如即是部门经理，又是分管领导），在出差及请假申请中，若时间短于2天，就会出现自己提交申请，自己审批完，流程就结束了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强正在修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表编号规则   合同号-ZJ-01    末尾的不足10补零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知平强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人简称校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平强已经处理，等待更新系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统催收管理中的条件查询有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +410,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,15 +465,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,97 +809,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="121.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="94.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="13.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="3"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42671</v>
+      </c>
+      <c r="E24" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E25" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42670</v>
+      </c>
+      <c r="E26" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E27" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E30" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E31" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6">
+        <v>42678</v>
+      </c>
+      <c r="E33" s="6">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6">
+        <v>42676</v>
+      </c>
+      <c r="E34" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>42677</v>
+      </c>
+      <c r="E35" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6">
+        <v>42677</v>
+      </c>
+      <c r="E36" s="6">
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6">
+        <v>42676</v>
+      </c>
+      <c r="E37" s="6">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6">
+        <v>42670</v>
+      </c>
+      <c r="E38" s="6">
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E39" s="6">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E40" s="6">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E41" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E42" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E43" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E44" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E45" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E46" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E47" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E48" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E49" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E50" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E51" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E52" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E53" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E54" s="6">
+        <v>42668</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/系统问题.xlsx
+++ b/系统问题.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104"/>
+    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题-任务" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'问题-任务'!$A$1:$E$1</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
@@ -98,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春城开不需要租后维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不理会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +220,6 @@
   </si>
   <si>
     <t>已经逾期法务正在处理，处理后李红霞解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统中安德固项目有问题，应该逾期没有显示逾期，应该结束了但是没有结束（咨询李红霞）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,6 +377,59 @@
   </si>
   <si>
     <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中安德固项目有问题，应该逾期没有显示逾期，应该结束了但是没有结束（咨询李红霞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出支付表功能完善（这个怎么做咨询李红霞）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户保证金退回流程的附件页面权限，给分管领导增加此权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程意见不填写的话提示的意见不对，应该显示：请填写审批意见！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统催收管理中的条件查询有问题（这个你问问陈晓是否做完了，要是做完了晚上6点让金俯更新下系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆丰二期，第11期租应由37,335,416.66改为37,335,416.67第13期应由35,306,944.45改为35,306,944.44
+          第14期租应由34,259,635.41改为34,259,635.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆丰一期支付表是原始的，应改为最后调息之后的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表管理列表页sql去掉支付表状态限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付表变更中缺少合同号为EGIC-HZL-JMJT05141225晋煤二期的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -507,6 +555,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,11 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -829,30 +895,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6">
         <v>42668</v>
@@ -860,13 +926,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="6">
         <v>42668</v>
@@ -874,46 +940,46 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="6">
         <v>42670</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+      <c r="A5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="6">
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6">
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>42677</v>
@@ -921,10 +987,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
         <v>42677</v>
@@ -932,10 +998,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="6">
         <v>42677</v>
@@ -946,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="6">
         <v>42678</v>
@@ -954,10 +1020,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6">
         <v>42678</v>
@@ -965,65 +1031,65 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6">
-        <v>42672</v>
+        <v>42683</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6">
-        <v>42675</v>
+        <v>42672</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6">
-        <v>42676</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="6">
-        <v>42677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6">
         <v>42677</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6">
         <v>42677</v>
@@ -1031,49 +1097,46 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="6">
-        <v>42676</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="6">
-        <v>42677</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D20" s="6">
-        <v>42668</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6">
         <v>42668</v>
@@ -1081,13 +1144,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6">
         <v>42668</v>
@@ -1095,16 +1158,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6">
-        <v>42669</v>
+        <v>42668</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,47 +1175,44 @@
         <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="6">
-        <v>42671</v>
-      </c>
-      <c r="E24" s="6">
-        <v>42675</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6">
-        <v>42668</v>
+        <v>42671</v>
       </c>
       <c r="E25" s="6">
         <v>42675</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>56</v>
+      <c r="A26" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D26" s="6">
-        <v>42670</v>
+        <v>42668</v>
       </c>
       <c r="E26" s="6">
         <v>42675</v>
@@ -1160,44 +1220,47 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="6">
-        <v>42668</v>
+        <v>42670</v>
       </c>
       <c r="E27" s="6">
-        <v>42668</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6">
         <v>42668</v>
       </c>
+      <c r="E28" s="6">
+        <v>42668</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="6">
         <v>42668</v>
@@ -1205,222 +1268,210 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D30" s="6">
-        <v>42678</v>
-      </c>
-      <c r="E30" s="6">
-        <v>42678</v>
+        <v>42668</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D31" s="6">
-        <v>42678</v>
+        <v>42677</v>
       </c>
       <c r="E31" s="6">
-        <v>42678</v>
+        <v>42683</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6">
-        <v>42678</v>
+        <v>42681</v>
       </c>
       <c r="E32" s="6">
-        <v>42678</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D33" s="6">
-        <v>42678</v>
+        <v>42677</v>
       </c>
       <c r="E33" s="6">
-        <v>42678</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="6">
-        <v>42676</v>
+        <v>42678</v>
       </c>
       <c r="E34" s="6">
-        <v>42677</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="6">
-        <v>42677</v>
+        <v>42678</v>
       </c>
       <c r="E35" s="6">
-        <v>42677</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="6">
-        <v>42677</v>
+        <v>42678</v>
       </c>
       <c r="E36" s="6">
-        <v>42677</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="6">
-        <v>42676</v>
+        <v>42678</v>
       </c>
       <c r="E37" s="6">
-        <v>42676</v>
+        <v>42678</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="6">
-        <v>42670</v>
+        <v>42676</v>
       </c>
       <c r="E38" s="6">
-        <v>42670</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>34</v>
+      <c r="A39" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="6">
-        <v>42668</v>
+        <v>42677</v>
       </c>
       <c r="E39" s="6">
-        <v>42669</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>42668</v>
+        <v>42677</v>
       </c>
       <c r="E40" s="6">
-        <v>42669</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="6">
-        <v>42668</v>
+        <v>42676</v>
       </c>
       <c r="E41" s="6">
-        <v>42668</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>28</v>
+      <c r="A42" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>42668</v>
+        <v>42670</v>
       </c>
       <c r="E42" s="6">
-        <v>42668</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>27</v>
+      <c r="A43" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>6</v>
@@ -1429,15 +1480,15 @@
         <v>42668</v>
       </c>
       <c r="E43" s="6">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>6</v>
@@ -1446,15 +1497,15 @@
         <v>42668</v>
       </c>
       <c r="E44" s="6">
-        <v>42668</v>
+        <v>42669</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>6</v>
@@ -1467,11 +1518,11 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>22</v>
+      <c r="A46" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
@@ -1485,10 +1536,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>6</v>
@@ -1502,127 +1553,337 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E48" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E49" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E50" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E48" s="6">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E51" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E49" s="6">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="C52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E52" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E50" s="6">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="C53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E53" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E51" s="6">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E54" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E52" s="6">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E55" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E53" s="6">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E56" s="6">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="6">
-        <v>42668</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="C57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E57" s="6">
         <v>42668</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
+  <sortState ref="A2:E57">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="99.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="14">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="14">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/系统问题.xlsx
+++ b/系统问题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104"/>
+    <workbookView xWindow="10884" yWindow="-12" windowWidth="10932" windowHeight="10104" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题-任务" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="171">
   <si>
     <t>保证金退回申请页面，收款人要可以修改，收款开户行取客户银行信息的开会行全称</t>
   </si>
@@ -697,6 +697,10 @@
   </si>
   <si>
     <t>出差获取不到部门信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核销流程增加资金到账日期显示，由租后确认或者财务确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +750,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -839,10 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,29 +876,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,9 +894,44 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,1159 +1245,1175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="255.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="255.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="170.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="255.44140625" style="1"/>
-    <col min="10" max="11" width="255.44140625" style="2"/>
-    <col min="12" max="16384" width="255.44140625" style="1"/>
+    <col min="1" max="1" width="79.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="255.44140625" style="25"/>
+    <col min="10" max="11" width="255.44140625" style="26"/>
+    <col min="12" max="16384" width="255.44140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="22">
         <v>42688</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="22">
         <v>42688</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="22">
         <v>42688</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="22">
         <v>42683</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="22">
         <v>42683</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="22">
         <v>42683</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="22">
         <v>42683</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="22">
         <v>42692</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="22">
         <v>42692</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="22">
         <v>42695</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="22">
         <v>42695</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="22">
         <v>42692</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="22">
         <v>42692</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="22">
         <v>42692</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="22">
         <v>42683</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="22">
         <v>42683</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="22">
         <v>42672</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="22">
         <v>42677</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="D20" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E21" s="7"/>
+      <c r="D21" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="22">
         <v>42671</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="22">
         <v>42675</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="22">
         <v>42670</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="22">
         <v>42675</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E24" s="22">
         <v>42675</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E25" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="D26" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="22">
         <v>42669</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="22">
         <v>42697</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E28" s="22">
         <v>42697</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="22">
         <v>42683</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="22">
         <v>42691</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="22">
         <v>42677</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="22">
         <v>42691</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="22">
         <v>42677</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="22">
         <v>42691</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="22">
         <v>42670</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="22">
         <v>42691</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="D33" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E33" s="22">
         <v>42690</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E34" s="22">
         <v>42690</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="22">
         <v>42678</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="22">
         <v>42688</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="22">
         <v>42678</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="22">
         <v>42688</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="22">
         <v>42677</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="22">
         <v>42688</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="22">
         <v>42677</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="22">
         <v>42688</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="22">
         <v>42676</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="22">
         <v>42688</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="22">
         <v>42676</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="22">
         <v>42688</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="22">
         <v>42675</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="22">
         <v>42688</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="22">
         <v>42683</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="22">
         <v>42683</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="22">
         <v>42677</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="22">
         <v>42683</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="D44" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E44" s="22">
         <v>42683</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="22">
         <v>42681</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="22">
         <v>42681</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="22">
         <v>42677</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="22">
         <v>42681</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="22">
         <v>42678</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="22">
         <v>42678</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="22">
         <v>42678</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="22">
         <v>42678</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="22">
         <v>42678</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="22">
         <v>42678</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="22">
         <v>42678</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="22">
         <v>42678</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="22">
         <v>42677</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="22">
         <v>42677</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="22">
         <v>42677</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="22">
         <v>42677</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="22">
         <v>42676</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="22">
         <v>42677</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="22">
         <v>42676</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="22">
         <v>42676</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="22">
         <v>42670</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="22">
         <v>42670</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E56" s="8">
+      <c r="D56" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E56" s="22">
         <v>42669</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E57" s="8">
+      <c r="D57" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E57" s="22">
         <v>42669</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E58" s="8">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="D58" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E58" s="22">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E59" s="8">
+      <c r="D59" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E59" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E60" s="8">
+      <c r="D60" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E60" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E61" s="8">
+      <c r="D61" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E61" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E62" s="8">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="D62" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E62" s="22">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E63" s="8">
+      <c r="D63" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E63" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E64" s="8">
+      <c r="D64" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E64" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E65" s="8">
+      <c r="D65" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E65" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E66" s="8">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="D66" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E66" s="22">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E67" s="8">
+      <c r="D67" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E67" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E68" s="8">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="D68" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E68" s="22">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E69" s="8">
+      <c r="D69" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E69" s="22">
         <v>42668</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E70" s="8">
-        <v>42668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="D70" s="22">
+        <v>42668</v>
+      </c>
+      <c r="E70" s="22">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="22">
         <v>42677</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="22">
         <v>42692</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+    <row r="72" spans="1:5" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="22">
         <v>42677</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="22">
         <v>42692</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="22">
         <v>42692</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="27" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E69">
@@ -2390,150 +2432,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33" style="15" customWidth="1"/>
-    <col min="3" max="3" width="27" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="42.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="22.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33" style="13" customWidth="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="57.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2553,326 +2600,326 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="104.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="D2" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>42677</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="5"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>42678</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>42678</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>42683</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>42675</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>42676</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>42677</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>42676</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>42677</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>42677</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>42677</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="8">
-        <v>42668</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="D16" s="6">
+        <v>42668</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>42670</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>42677</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
     </row>
